--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_vdt_quyettoanniendo_vonung.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_vdt_quyettoanniendo_vonung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\dungnv5\project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prj_web\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>&lt;#ChucDanh1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#evaluate(UPPER(&lt;ThuaLenh1&gt;))&gt;</t>
   </si>
   <si>
     <t>&lt;#ChucDanh2&gt;</t>
@@ -544,26 +541,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -577,14 +573,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1122,8 +1119,8 @@
   </sheetPr>
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,11 +1142,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -1163,11 +1160,11 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1197,40 +1194,40 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="16.5">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="3"/>
@@ -1243,52 +1240,52 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
     </row>
     <row r="7" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31" t="s">
+      <c r="H7" s="32"/>
+      <c r="I7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31" t="s">
+      <c r="J7" s="32"/>
+      <c r="K7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31" t="s">
+      <c r="L7" s="32"/>
+      <c r="M7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="31"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="1:18" ht="69.75" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1409,137 +1406,137 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.5">
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
     </row>
     <row r="13" spans="1:18" ht="16.5">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:18" s="20" customFormat="1" ht="17.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
+      <c r="F14" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
     </row>
     <row r="15" spans="1:18" ht="16.5">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:18" ht="16.5">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:16" ht="16.5">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="35" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="35" t="s">
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
     </row>
     <row r="18" spans="1:16" ht="16.5">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:16" s="20" customFormat="1" ht="17.25">
       <c r="A19" s="19"/>
@@ -1550,7 +1547,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="33"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -1560,121 +1557,123 @@
       <c r="P19" s="21"/>
     </row>
     <row r="20" spans="1:16" ht="16.5">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:16" ht="16.5">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="35" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
     </row>
     <row r="22" spans="1:16" ht="16.5">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="35" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
     </row>
     <row r="23" spans="1:16" ht="16.5">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:16" ht="16.5">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:16" ht="16.5">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="35" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A13:C13"/>
@@ -1691,18 +1690,16 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_vdt_quyettoanniendo_vonung.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_vdt_quyettoanniendo_vonung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prj_web\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -208,36 +208,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>&lt;#Items.FUngTruocChuaThuHoiNamTruoc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FLuyKeThanhToanNamTruoc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FKeHoachVonDuocKeoDai&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FVonKeoDaiDaThanhToanNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FThuHoiVonNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriThuHoiTheoGiaiNganThucTe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FKHVUNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FVonDaThanhToanNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FKHVUChuaThuHoiChuyenNamSau&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTongSoVonDaThanhToanThuHoi&gt;</t>
-  </si>
-  <si>
     <t>&lt;#ThuaLenh4&gt;</t>
   </si>
   <si>
@@ -269,6 +239,36 @@
   </si>
   <si>
     <t>&lt;#ChucDanh3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FUngTruocChuaThuHoiNamTruoc&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FLuyKeThanhToanNamTruoc&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FKeHoachVonDuocKeoDai&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FVonKeoDaiDaThanhToanNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FThuHoiVonNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FGiaTriThuHoiTheoGiaiNganThucTe&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FKHVUNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FVonDaThanhToanNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FKHVUChuaThuHoiChuyenNamSau&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FTongSoVonDaThanhToanThuHoi&gt;)&gt;</t>
   </si>
 </sst>
 </file>
@@ -549,17 +549,26 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -572,15 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1119,8 +1119,8 @@
   </sheetPr>
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:H13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,11 +1142,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -1160,11 +1160,11 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1194,40 +1194,40 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:18" ht="16.5">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="3"/>
@@ -1240,52 +1240,52 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32" t="s">
+      <c r="H7" s="35"/>
+      <c r="I7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32" t="s">
+      <c r="L7" s="35"/>
+      <c r="M7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="32"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="1:18" ht="69.75" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="66">
+    <row r="10" spans="1:18" ht="99">
       <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
@@ -1375,66 +1375,66 @@
         <v>28</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K10" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16.5">
+      <c r="J12" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+    </row>
+    <row r="13" spans="1:18" ht="16.5">
+      <c r="A13" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="16.5">
-      <c r="J12" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-    </row>
-    <row r="13" spans="1:18" ht="16.5">
-      <c r="A13" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="F13" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
+      <c r="J13" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -1442,25 +1442,25 @@
     </row>
     <row r="14" spans="1:18" s="20" customFormat="1" ht="17.25">
       <c r="A14" s="29" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="29" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
+      <c r="J14" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="21" spans="1:16" ht="16.5">
       <c r="A21" s="25" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -1585,7 +1585,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="22"/>
       <c r="J21" s="25" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="22" spans="1:16" ht="16.5">
       <c r="A22" s="25" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -1605,7 +1605,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="22"/>
       <c r="J22" s="25" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="25" spans="1:16" ht="16.5">
       <c r="A25" s="25" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -1657,7 +1657,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="22"/>
       <c r="J25" s="25" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -1666,14 +1666,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A13:C13"/>
@@ -1690,12 +1688,14 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F13:H13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_vdt_quyettoanniendo_vonung.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_vdt_quyettoanniendo_vonung.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="__Items__">Sheet1!$A$10:$D$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$26</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -549,26 +549,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,6 +572,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1119,7 +1119,7 @@
   </sheetPr>
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="60" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -1142,11 +1142,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -1160,11 +1160,11 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1194,40 +1194,40 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="16.5">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="3"/>
@@ -1240,52 +1240,52 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
     </row>
     <row r="7" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35" t="s">
+      <c r="H7" s="32"/>
+      <c r="I7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35" t="s">
+      <c r="J7" s="32"/>
+      <c r="K7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35" t="s">
+      <c r="L7" s="32"/>
+      <c r="M7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="35"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="1:18" ht="69.75" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1406,35 +1406,35 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.5">
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
     </row>
     <row r="13" spans="1:18" ht="16.5">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -1454,13 +1454,13 @@
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -1666,12 +1666,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A13:C13"/>
@@ -1688,18 +1690,16 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
